--- a/Resources/username_password.xlsx
+++ b/Resources/username_password.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\IdeaProjects\CWTestNGProject\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F904AB17-3FD9-4D3C-9771-3669A4262BE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B8D8A5-B2C6-4617-88FB-9463F02A1D03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Username</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t>johnnie.zboncak</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
@@ -165,9 +186,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,72 +475,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
         <v>456</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
         <v>789</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
         <v>980</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>321</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
         <v>765</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -531,9 +580,9 @@
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -541,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -549,7 +598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -557,7 +606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -565,7 +614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -573,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -581,7 +630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -589,7 +638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -597,7 +646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -605,7 +654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -613,7 +662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
